--- a/TeamManagement/Analysis.xlsx
+++ b/TeamManagement/Analysis.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung\OneDrive - Hanoi University of Science and Technology\Documents\A.I\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/trung_nk205133_sis_hust_edu_vn/Documents/Documents/A.I/Project-AI/TeamManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702B8583-C8BA-4E7B-89ED-FF82048657FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{702B8583-C8BA-4E7B-89ED-FF82048657FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7A63BB-431A-4CB3-9D98-9343B4C30BD1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{902010BD-21E1-4634-884A-4CD1D7ACB7D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeComplexity" sheetId="1" r:id="rId1"/>
+    <sheet name="SpaceComplexity" sheetId="2" r:id="rId2"/>
+    <sheet name="RouteCost" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>UCS</t>
   </si>
@@ -54,16 +56,25 @@
     <t>Ha Noi --&gt; Hoa Binh</t>
   </si>
   <si>
-    <t>9\9</t>
-  </si>
-  <si>
-    <t>21\21</t>
-  </si>
-  <si>
-    <t>13\10</t>
-  </si>
-  <si>
-    <t>9\8</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>155.59</t>
+  </si>
+  <si>
+    <t>123.52</t>
+  </si>
+  <si>
+    <t>69.94</t>
+  </si>
+  <si>
+    <t>Ha Noi --&gt; Lao Cai</t>
   </si>
 </sst>
 </file>
@@ -99,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,24 +428,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D81B87-B625-44AD-893B-EE4F81D9481E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -447,22 +460,172 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4839780C-0A92-42C4-9CCA-817E96DCFBD6}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3B4C25-82DE-4004-97F5-BF52B5295062}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>123.52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>69.94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>325.45</v>
+      </c>
+      <c r="C4">
+        <v>325.45</v>
+      </c>
+      <c r="D4">
+        <v>325.45</v>
       </c>
     </row>
   </sheetData>
